--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>85.597155464175</v>
+        <v>87.76033333612712</v>
       </c>
       <c r="R2">
-        <v>770.374399177575</v>
+        <v>789.8430000251441</v>
       </c>
       <c r="S2">
-        <v>0.01002043224647668</v>
+        <v>0.00724940784943257</v>
       </c>
       <c r="T2">
-        <v>0.01002043224647669</v>
+        <v>0.00724940784943257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>131.5032273858</v>
+        <v>72.27122501911289</v>
       </c>
       <c r="R3">
-        <v>1183.5290464722</v>
+        <v>650.441025172016</v>
       </c>
       <c r="S3">
-        <v>0.01539442722210472</v>
+        <v>0.005969936143416947</v>
       </c>
       <c r="T3">
-        <v>0.01539442722210473</v>
+        <v>0.005969936143416947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>65.7112433142</v>
+        <v>41.69555792243111</v>
       </c>
       <c r="R4">
-        <v>591.4011898278001</v>
+        <v>375.26002130188</v>
       </c>
       <c r="S4">
-        <v>0.007692487652084051</v>
+        <v>0.003444245177734664</v>
       </c>
       <c r="T4">
-        <v>0.007692487652084052</v>
+        <v>0.003444245177734664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>104.591122483125</v>
+        <v>42.1439798723349</v>
       </c>
       <c r="R5">
-        <v>941.320102348125</v>
+        <v>379.2958188510141</v>
       </c>
       <c r="S5">
-        <v>0.01224396127116325</v>
+        <v>0.003481286896697143</v>
       </c>
       <c r="T5">
-        <v>0.01224396127116325</v>
+        <v>0.003481286896697143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>52.53839404155</v>
+        <v>31.74417048471356</v>
       </c>
       <c r="R6">
-        <v>472.84554637395</v>
+        <v>285.697534362422</v>
       </c>
       <c r="S6">
-        <v>0.0061504078608358</v>
+        <v>0.002622214728882247</v>
       </c>
       <c r="T6">
-        <v>0.006150407860835802</v>
+        <v>0.002622214728882247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H7">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>68.97092235225001</v>
+        <v>53.11073891283623</v>
       </c>
       <c r="R7">
-        <v>620.7383011702501</v>
+        <v>477.9966502155261</v>
       </c>
       <c r="S7">
-        <v>0.008074082025973156</v>
+        <v>0.004387191717802902</v>
       </c>
       <c r="T7">
-        <v>0.008074082025973159</v>
+        <v>0.004387191717802902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>26.17142646552033</v>
+        <v>48.82444567251245</v>
       </c>
       <c r="R8">
-        <v>235.542838189683</v>
+        <v>439.420011052612</v>
       </c>
       <c r="S8">
-        <v>0.003063758418948306</v>
+        <v>0.004033124149003212</v>
       </c>
       <c r="T8">
-        <v>0.003063758418948307</v>
+        <v>0.004033124149003211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>40.20725953850756</v>
@@ -1013,10 +1013,10 @@
         <v>361.865335846568</v>
       </c>
       <c r="S9">
-        <v>0.004706863421305415</v>
+        <v>0.003321304874563872</v>
       </c>
       <c r="T9">
-        <v>0.004706863421305417</v>
+        <v>0.003321304874563871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>20.09128648060356</v>
+        <v>23.19684104630445</v>
       </c>
       <c r="R10">
-        <v>180.821578325432</v>
+        <v>208.77156941674</v>
       </c>
       <c r="S10">
-        <v>0.002351986743387761</v>
+        <v>0.00191616593933211</v>
       </c>
       <c r="T10">
-        <v>0.002351986743387762</v>
+        <v>0.00191616593933211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>31.97885322438056</v>
+        <v>23.44631540788856</v>
       </c>
       <c r="R11">
-        <v>287.809679019425</v>
+        <v>211.016838670997</v>
       </c>
       <c r="S11">
-        <v>0.003743604916743319</v>
+        <v>0.001936773670938749</v>
       </c>
       <c r="T11">
-        <v>0.00374360491674332</v>
+        <v>0.001936773670938748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.828211</v>
       </c>
       <c r="I12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>16.06367301364867</v>
+        <v>17.66050182733122</v>
       </c>
       <c r="R12">
-        <v>144.573057122838</v>
+        <v>158.944516445981</v>
       </c>
       <c r="S12">
-        <v>0.001880494114435743</v>
+        <v>0.001458838813676994</v>
       </c>
       <c r="T12">
-        <v>0.001880494114435743</v>
+        <v>0.001458838813676994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.828211</v>
       </c>
       <c r="I13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>21.08793700926778</v>
+        <v>29.54754486568589</v>
       </c>
       <c r="R13">
-        <v>189.79143308341</v>
+        <v>265.927903791173</v>
       </c>
       <c r="S13">
-        <v>0.0024686596519878</v>
+        <v>0.002440763332795896</v>
       </c>
       <c r="T13">
-        <v>0.002468659651987801</v>
+        <v>0.002440763332795895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>47.26316091495733</v>
+        <v>177.2043271988676</v>
       </c>
       <c r="R14">
-        <v>425.368448234616</v>
+        <v>1594.838944789808</v>
       </c>
       <c r="S14">
-        <v>0.005532862618324619</v>
+        <v>0.01463789381506443</v>
       </c>
       <c r="T14">
-        <v>0.005532862618324621</v>
+        <v>0.01463789381506443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>72.61056939412622</v>
+        <v>145.9289558108124</v>
       </c>
       <c r="R15">
-        <v>653.495124547136</v>
+        <v>1313.360602297312</v>
       </c>
       <c r="S15">
-        <v>0.008500157359743727</v>
+        <v>0.01205440405134504</v>
       </c>
       <c r="T15">
-        <v>0.008500157359743731</v>
+        <v>0.01205440405134504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>36.28299386631822</v>
+        <v>84.19103492379556</v>
       </c>
       <c r="R16">
-        <v>326.546944796864</v>
+        <v>757.71931431416</v>
       </c>
       <c r="S16">
-        <v>0.004247469203447262</v>
+        <v>0.006954567356652993</v>
       </c>
       <c r="T16">
-        <v>0.004247469203447263</v>
+        <v>0.006954567356652992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H17">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I17">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J17">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>57.75083325362223</v>
+        <v>85.09648168901646</v>
       </c>
       <c r="R17">
-        <v>519.7574992826001</v>
+        <v>765.8683352011481</v>
       </c>
       <c r="S17">
-        <v>0.00676060213283247</v>
+        <v>0.007029361430894889</v>
       </c>
       <c r="T17">
-        <v>0.006760602132832473</v>
+        <v>0.007029361430894888</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H18">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I18">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J18">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>29.00949871913067</v>
+        <v>64.09734511473378</v>
       </c>
       <c r="R18">
-        <v>261.085488472176</v>
+        <v>576.876106032604</v>
       </c>
       <c r="S18">
-        <v>0.003395997388499231</v>
+        <v>0.005294736005876767</v>
       </c>
       <c r="T18">
-        <v>0.003395997388499231</v>
+        <v>0.005294736005876766</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H19">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I19">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J19">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>38.08285198159111</v>
+        <v>107.2403943594591</v>
       </c>
       <c r="R19">
-        <v>342.74566783432</v>
+        <v>965.163549235132</v>
       </c>
       <c r="S19">
-        <v>0.004458169619828639</v>
+        <v>0.008858550635491643</v>
       </c>
       <c r="T19">
-        <v>0.004458169619828641</v>
+        <v>0.008858550635491642</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>16.56532596374</v>
+        <v>7.931774260302666</v>
       </c>
       <c r="R20">
-        <v>149.08793367366</v>
+        <v>71.385968342724</v>
       </c>
       <c r="S20">
-        <v>0.001939220124317452</v>
+        <v>0.0006552010959476933</v>
       </c>
       <c r="T20">
-        <v>0.001939220124317453</v>
+        <v>0.0006552010959476933</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>25.44937171237333</v>
+        <v>6.531869474237332</v>
       </c>
       <c r="R21">
-        <v>229.04434541136</v>
+        <v>58.786825268136</v>
       </c>
       <c r="S21">
-        <v>0.002979231068793731</v>
+        <v>0.0005395625111933375</v>
       </c>
       <c r="T21">
-        <v>0.002979231068793732</v>
+        <v>0.0005395625111933375</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H22">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>12.71687311429333</v>
+        <v>3.768442307886667</v>
       </c>
       <c r="R22">
-        <v>114.45185802864</v>
+        <v>33.91598077098</v>
       </c>
       <c r="S22">
-        <v>0.001488700935653755</v>
+        <v>0.0003112906960174609</v>
       </c>
       <c r="T22">
-        <v>0.001488700935653756</v>
+        <v>0.0003112906960174609</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H23">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>20.24116370983333</v>
+        <v>3.808970659874334</v>
       </c>
       <c r="R23">
-        <v>182.1704733885</v>
+        <v>34.280735938869</v>
       </c>
       <c r="S23">
-        <v>0.002369532123402348</v>
+        <v>0.000314638524607613</v>
       </c>
       <c r="T23">
-        <v>0.002369532123402349</v>
+        <v>0.000314638524607613</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H24">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>10.16757645964</v>
+        <v>2.869036440426334</v>
       </c>
       <c r="R24">
-        <v>91.50818813676</v>
+        <v>25.821327963837</v>
       </c>
       <c r="S24">
-        <v>0.001190267485785029</v>
+        <v>0.0002369956277612812</v>
       </c>
       <c r="T24">
-        <v>0.00119026748578503</v>
+        <v>0.0002369956277612812</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H25">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>13.34770769646667</v>
+        <v>4.800145758802334</v>
       </c>
       <c r="R25">
-        <v>120.1293692682</v>
+        <v>43.20131182922101</v>
       </c>
       <c r="S25">
-        <v>0.001562549595169642</v>
+        <v>0.0003965141541680675</v>
       </c>
       <c r="T25">
-        <v>0.001562549595169643</v>
+        <v>0.0003965141541680675</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H26">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I26">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J26">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>1200.884380531077</v>
+        <v>2847.43910604298</v>
       </c>
       <c r="R26">
-        <v>10807.95942477969</v>
+        <v>25626.95195438682</v>
       </c>
       <c r="S26">
-        <v>0.1405815474323806</v>
+        <v>0.2352115884413092</v>
       </c>
       <c r="T26">
-        <v>0.1405815474323806</v>
+        <v>0.2352115884413092</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H27">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I27">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J27">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>1844.923127417804</v>
+        <v>2344.885263515059</v>
       </c>
       <c r="R27">
-        <v>16604.30814676024</v>
+        <v>21103.96737163553</v>
       </c>
       <c r="S27">
-        <v>0.2159759526820411</v>
+        <v>0.1936983257599714</v>
       </c>
       <c r="T27">
-        <v>0.2159759526820411</v>
+        <v>0.1936983257599714</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H28">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I28">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J28">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>921.8951879110845</v>
+        <v>1352.838550896164</v>
       </c>
       <c r="R28">
-        <v>8297.056691199759</v>
+        <v>12175.54695806548</v>
       </c>
       <c r="S28">
-        <v>0.1079216735500306</v>
+        <v>0.1117506968930849</v>
       </c>
       <c r="T28">
-        <v>0.1079216735500306</v>
+        <v>0.1117506968930849</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H29">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I29">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J29">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>1467.360038439195</v>
+        <v>1367.387882554622</v>
       </c>
       <c r="R29">
-        <v>13206.24034595275</v>
+        <v>12306.4909429916</v>
       </c>
       <c r="S29">
-        <v>0.1717765241921066</v>
+        <v>0.1129525387175097</v>
       </c>
       <c r="T29">
-        <v>0.1717765241921066</v>
+        <v>0.1129525387175097</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H30">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I30">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J30">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>737.0868393995933</v>
+        <v>1029.95953856364</v>
       </c>
       <c r="R30">
-        <v>6633.781554596339</v>
+        <v>9269.635847072761</v>
       </c>
       <c r="S30">
-        <v>0.08628708154985942</v>
+        <v>0.08507940295604514</v>
       </c>
       <c r="T30">
-        <v>0.08628708154985945</v>
+        <v>0.08507940295604514</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H31">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I31">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J31">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>967.6268202429223</v>
+        <v>1723.211263932083</v>
       </c>
       <c r="R31">
-        <v>8708.641382186301</v>
+        <v>15508.90137538875</v>
       </c>
       <c r="S31">
-        <v>0.113275247752549</v>
+        <v>0.1423451893138758</v>
       </c>
       <c r="T31">
-        <v>0.113275247752549</v>
+        <v>0.1423451893138758</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H32">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I32">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J32">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>60.29586523103332</v>
+        <v>62.75502693096356</v>
       </c>
       <c r="R32">
-        <v>542.6627870793</v>
+        <v>564.795242378672</v>
       </c>
       <c r="S32">
-        <v>0.007058536338197951</v>
+        <v>0.005183854339776098</v>
       </c>
       <c r="T32">
-        <v>0.007058536338197954</v>
+        <v>0.005183854339776098</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H33">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I33">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J33">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>92.63276136808888</v>
+        <v>51.67918694015644</v>
       </c>
       <c r="R33">
-        <v>833.6948523128</v>
+        <v>465.112682461408</v>
       </c>
       <c r="S33">
-        <v>0.01084405555370897</v>
+        <v>0.004268938929634156</v>
       </c>
       <c r="T33">
-        <v>0.01084405555370898</v>
+        <v>0.004268938929634156</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H34">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I34">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J34">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>46.28794320968889</v>
+        <v>29.81535918171556</v>
       </c>
       <c r="R34">
-        <v>416.5914888872</v>
+        <v>268.33823263544</v>
       </c>
       <c r="S34">
-        <v>0.005418698743506411</v>
+        <v>0.002462886029132745</v>
       </c>
       <c r="T34">
-        <v>0.005418698743506411</v>
+        <v>0.002462886029132745</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H35">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I35">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J35">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>73.67548829638889</v>
+        <v>30.13601351919245</v>
       </c>
       <c r="R35">
-        <v>663.0793946675001</v>
+        <v>271.2241216727321</v>
       </c>
       <c r="S35">
-        <v>0.008624822106489682</v>
+        <v>0.002489373554677531</v>
       </c>
       <c r="T35">
-        <v>0.008624822106489684</v>
+        <v>0.002489373554677531</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H36">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I36">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J36">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>37.00879905886666</v>
+        <v>22.69939274318178</v>
       </c>
       <c r="R36">
-        <v>333.0791915298</v>
+        <v>204.294534688636</v>
       </c>
       <c r="S36">
-        <v>0.004332435598844788</v>
+        <v>0.001875074417727099</v>
       </c>
       <c r="T36">
-        <v>0.004332435598844789</v>
+        <v>0.001875074417727099</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H37">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I37">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J37">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>48.58410792344445</v>
+        <v>37.97804456864311</v>
       </c>
       <c r="R37">
-        <v>437.2569713110001</v>
+        <v>341.802401117788</v>
       </c>
       <c r="S37">
-        <v>0.00568749929904085</v>
+        <v>0.003137161447957773</v>
       </c>
       <c r="T37">
-        <v>0.005687499299040852</v>
+        <v>0.003137161447957773</v>
       </c>
     </row>
   </sheetData>
